--- a/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/all-profiles.xlsx
+++ b/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:44:20+00:00</t>
+    <t>2025-07-28T14:45:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/all-profiles.xlsx
+++ b/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:45:11+00:00</t>
+    <t>2025-07-29T07:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2696,7 +2696,7 @@
     <t>Ordre d’enregistrement de la naissance dans le registre d’état civil de la commune de naissance pour le mois de la naissance. Il compose les 3 derniers chiffres du NIR de l'usager avant la clé de sécurité et permet de distinguer les personnes nées au même lieu et à la même période. Il est obligatoire si le NIR n'est pas transmis.</t>
   </si>
   <si>
-    <t>element:Patient</t>
+    <t>element:Patient.birthDate</t>
   </si>
   <si>
     <t>tddui-bundle</t>
@@ -59022,7 +59022,7 @@
         <v>76</v>
       </c>
       <c r="H488" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I488" t="s" s="2">
         <v>78</v>
@@ -77764,7 +77764,7 @@
         <v>76</v>
       </c>
       <c r="H666" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I666" t="s" s="2">
         <v>78</v>

--- a/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/all-profiles.xlsx
+++ b/303-exemple---création-dun-exemple-de-cas-dusage-ssiad/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:14:57+00:00</t>
+    <t>2025-07-29T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
